--- a/stage2_excels/PD/PD_color_space.xlsx
+++ b/stage2_excels/PD/PD_color_space.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BV22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +714,96 @@
           <t>xyz_z_75</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -996,6 +1086,96 @@
           <t>124.0</t>
         </is>
       </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>142.5104241846531</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>965.5847520975917</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>31.073859626663562</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>113.93329070960613</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>281.54417880734997</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>16.77927825644923</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>146.52246112558214</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>448.3209170780729</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>21.17359008477478</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1278,6 +1458,96 @@
           <t>34.0</t>
         </is>
       </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>65.26228724510544</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>1291.8951841309981</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>35.94294345391037</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>126.0012976328532</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>43.13220173615247</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>6.56751107621087</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>131.34236653645834</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>108.81307664844822</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>10.431350662711335</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1560,6 +1830,96 @@
           <t>123.0</t>
         </is>
       </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>144.04752615442004</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>1042.6453888418055</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>32.2900199572841</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>122.70124244689941</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>158.3390886510259</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>12.583286083175011</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>134.6793622970581</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>243.1977810249169</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>15.59479980714459</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1842,6 +2202,96 @@
           <t>30.0</t>
         </is>
       </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>68.25345021468003</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>807.5120681069233</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>28.416756818942645</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>119.64036063512295</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>160.55359972579438</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>12.670974695176152</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>140.47849209984514</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>337.0554489888107</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>18.359069938011856</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2124,6 +2574,96 @@
           <t>47.0</t>
         </is>
       </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>83.11840290907979</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>1043.3060750211969</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>32.30024883837889</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>125.78794860839844</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>59.87909693620168</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>7.738158497743612</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>131.20871671040854</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>121.15462484496862</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>11.007026158094138</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2406,6 +2946,96 @@
           <t>36.0</t>
         </is>
       </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>73.0739063905634</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>1146.6291508048</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>33.861912982062904</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>118.53138742466788</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>166.72782659369886</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>12.912312983880884</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>142.346434142897</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>352.41039374967784</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>18.77259688348093</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2688,6 +3318,96 @@
           <t>53.0</t>
         </is>
       </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>84.66241152422101</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>1322.7004172569498</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>36.3689485310883</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>114.01805670873715</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>246.71676295832853</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>15.707220090083686</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>149.65355121516131</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>523.2349146780023</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>22.87432872628183</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2970,6 +3690,96 @@
           <t>29.0</t>
         </is>
       </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>51.02854625651144</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>1614.3832480202086</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>40.179388348010086</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>126.7295789718628</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>18.186956301871458</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>4.2646167825340955</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>130.33877595265707</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>52.08011642569901</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>7.216655487530149</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3252,6 +4062,96 @@
           <t>43.0</t>
         </is>
       </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>60.21131947057391</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>1283.7131543334533</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>35.828942969803805</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>121.94877619034786</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>72.92286701188964</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>8.539488685623375</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>138.95176240652836</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>177.50554804458534</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>13.32312080725028</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3534,6 +4434,96 @@
           <t>77.0</t>
         </is>
       </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>95.20793541473456</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>1003.1844224430578</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>31.673086721111627</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>124.99614810943604</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>67.3523471599072</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>8.206847577474996</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>132.40377457936606</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>139.02318148975414</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>11.79080919571486</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3816,6 +4806,96 @@
           <t>78.0</t>
         </is>
       </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>115.62942086671279</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>1187.6987094283877</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>34.46300493904134</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>122.53393936157227</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>176.3684388790134</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>13.280377964463716</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>135.14838218688965</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>288.65404944312394</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>16.9898219367692</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4098,6 +5178,96 @@
           <t>42.0</t>
         </is>
       </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>54.23931422607637</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>1476.8961987013056</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>38.43040721487746</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>127.00471528371175</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>15.659227707607355</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>3.957174207386801</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>129.88727283477783</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>43.958325364642484</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>6.630107492691388</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4380,6 +5550,96 @@
           <t>142.0</t>
         </is>
       </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>148.09595653867913</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>1211.7811812801233</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>34.81064752744659</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>116.97309209403466</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>258.0455616084456</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>16.063796612521138</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>142.360382150104</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>411.3512929644501</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>20.281797084194736</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4662,6 +5922,96 @@
           <t>115.0</t>
         </is>
       </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>136.58701673985618</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>1197.6204209794262</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>34.6066528427617</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>115.51069432426743</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>280.99281493616894</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>16.762840300383733</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>143.97889665816982</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>434.8087008335709</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>20.852067063808587</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4944,6 +6294,96 @@
           <t>40.0</t>
         </is>
       </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>81.60848817211372</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>1363.5947424088763</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>36.92688373541527</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>122.15286000569661</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>138.04449982614548</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>11.74923401018745</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>137.12794335683188</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>316.21351718821836</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>17.782393460617676</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5226,6 +6666,96 @@
           <t>128.0</t>
         </is>
       </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>142.08771634427129</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>1195.751370765808</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>34.5796380947778</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>114.27997312150931</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>292.07453838746045</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>17.0901883660614</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>145.8338931588577</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>457.846700082011</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>21.397352641904348</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5508,6 +7038,96 @@
           <t>72.0</t>
         </is>
       </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>93.64590091439909</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>1023.5659059536118</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>31.993216561540226</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>118.30025081448704</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>182.5719701244901</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>13.51191955735713</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>141.3945496691889</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>337.6246138997089</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>18.37456431863648</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5790,6 +7410,96 @@
           <t>122.0</t>
         </is>
       </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>138.56845289693936</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>1135.2278740203935</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>33.69314283382293</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>124.13392957051595</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>117.93857913601072</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>10.859952998793812</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>133.27090771993002</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>206.6474876083563</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>14.375238697439299</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6072,6 +7782,96 @@
           <t>157.0</t>
         </is>
       </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>164.49033064351048</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>636.2851579068138</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>25.224693415516743</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>117.47119134427894</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>196.7827020386028</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>14.027925792454235</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>141.67230676927693</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>308.1596903313408</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>17.554477785777074</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6354,6 +8154,96 @@
           <t>126.0</t>
         </is>
       </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>138.21280796297967</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>1004.1598356420867</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>31.688481119203026</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>119.37601743084501</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>190.40712548056015</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>13.798808842815388</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>139.78941897183276</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>329.8148055611053</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>18.160804100069612</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6634,6 +8524,96 @@
       <c r="BD22" t="inlineStr">
         <is>
           <t>15.0</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>63.21710892787601</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>1186.0667285160825</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>34.439319512964865</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>121.83839543660481</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>130.1741873606792</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>11.409390315029073</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>138.16466744740805</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>326.8593086963999</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>18.079250778071525</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>146.0</t>
         </is>
       </c>
     </row>

--- a/stage2_excels/PD/PD_color_space.xlsx
+++ b/stage2_excels/PD/PD_color_space.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV22"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,92 +536,92 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_75</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_75</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -712,96 +712,6 @@
       <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>xyz_z_75</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_mean</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_median</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_25</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_75</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_25</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_75</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_25</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
         </is>
       </c>
     </row>
@@ -908,37 +818,37 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>152.08016272894398</t>
+          <t>142.5104241846531</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>824.3368264731448</t>
+          <t>965.5847520975917</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>28.71126654247675</t>
+          <t>31.073859626663562</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>124.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>170.0</t>
+          <t>161.0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>135.99788302154866</t>
+          <t>113.93329070960613</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -948,27 +858,27 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>94.03884783508074</t>
+          <t>281.54417880734997</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>9.697362932007895</t>
+          <t>16.77927825644923</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>144.3966011524193</t>
+          <t>146.52246112558214</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -978,12 +888,12 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>383.30531546654225</t>
+          <t>448.3209170780729</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>19.57818468261402</t>
+          <t>21.17359008477478</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -993,7 +903,7 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>167.0</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -1084,96 +994,6 @@
       <c r="BD2" t="inlineStr">
         <is>
           <t>124.0</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>142.5104241846531</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>141.0</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>965.5847520975917</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>31.073859626663562</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>124.0</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>161.0</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>113.93329070960613</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>281.54417880734997</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>16.77927825644923</t>
-        </is>
-      </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>146.52246112558214</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>448.3209170780729</t>
-        </is>
-      </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>21.17359008477478</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>167.0</t>
         </is>
       </c>
     </row>
@@ -1280,37 +1100,37 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>71.90593307940884</t>
+          <t>65.26228724510544</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1370.2128076354456</t>
+          <t>1291.8951841309981</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>37.016385664127796</t>
+          <t>35.94294345391037</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>130.013653755188</t>
+          <t>126.0012976328532</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1320,12 +1140,12 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>40.41062309187558</t>
+          <t>43.13220173615247</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>6.3569350391423365</t>
+          <t>6.56751107621087</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1340,7 +1160,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>130.65808582305908</t>
+          <t>131.34236653645834</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1350,12 +1170,12 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>74.33636815090819</t>
+          <t>108.81307664844822</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>8.62185410169461</t>
+          <t>10.431350662711335</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1456,96 +1276,6 @@
       <c r="BD3" t="inlineStr">
         <is>
           <t>34.0</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>65.26228724510544</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>1291.8951841309981</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>35.94294345391037</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>72.0</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>126.0012976328532</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>43.13220173615247</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>6.56751107621087</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>131.34236653645834</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>108.81307664844822</t>
-        </is>
-      </c>
-      <c r="BT3" t="inlineStr">
-        <is>
-          <t>10.431350662711335</t>
-        </is>
-      </c>
-      <c r="BU3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV3" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -1652,37 +1382,37 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>153.84357020917827</t>
+          <t>144.04752615442004</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>153.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>891.0515521552024</t>
+          <t>1042.6453888418055</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>29.85048663179886</t>
+          <t>32.2900199572841</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>124.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>164.0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>130.79219182332358</t>
+          <t>122.70124244689941</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1692,12 +1422,12 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>48.29728512205791</t>
+          <t>158.3390886510259</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>6.949624818798344</t>
+          <t>12.583286083175011</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1712,7 +1442,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>134.16357898712158</t>
+          <t>134.6793622970581</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1722,12 +1452,12 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>214.02223057515076</t>
+          <t>243.1977810249169</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>14.629498644012061</t>
+          <t>15.59479980714459</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1828,96 +1558,6 @@
       <c r="BD4" t="inlineStr">
         <is>
           <t>123.0</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>144.04752615442004</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>143.0</t>
-        </is>
-      </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>1042.6453888418055</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>32.2900199572841</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>124.0</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>164.0</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>122.70124244689941</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>158.3390886510259</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>12.583286083175011</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>134.6793622970581</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>243.1977810249169</t>
-        </is>
-      </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>15.59479980714459</t>
-        </is>
-      </c>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV4" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -2024,134 +1664,134 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>76.83157272995751</t>
+          <t>68.25345021468003</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>854.2578041350303</t>
+          <t>807.5120681069233</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>29.22768899750766</t>
+          <t>28.416756818942645</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>119.64036063512295</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>160.55359972579438</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>12.670974695176152</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>140.47849209984514</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>337.0554489888107</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>18.359069938011856</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>69.0571003430337</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>695.456722739903</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>26.37151347078705</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>65.16243553919898</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
           <t>59.0</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>87.0</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>135.1417105985644</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>115.41430286527634</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>10.743104898737439</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>146.0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>138.84041412155645</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>262.4767045225071</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>16.20113281602577</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>156.0</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>69.0571003430337</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>695.456722739903</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>26.37151347078705</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>54.0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>77.0</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>65.16243553919898</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>59.0</t>
-        </is>
-      </c>
       <c r="AU5" t="inlineStr">
         <is>
           <t>834.293720786157</t>
@@ -2200,96 +1840,6 @@
       <c r="BD5" t="inlineStr">
         <is>
           <t>30.0</t>
-        </is>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>68.25345021468003</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>807.5120681069233</t>
-        </is>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>28.416756818942645</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>52.0</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>77.0</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>119.64036063512295</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>160.55359972579438</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>12.670974695176152</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t>140.47849209984514</t>
-        </is>
-      </c>
-      <c r="BR5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>337.0554489888107</t>
-        </is>
-      </c>
-      <c r="BT5" t="inlineStr">
-        <is>
-          <t>18.359069938011856</t>
-        </is>
-      </c>
-      <c r="BU5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>160.0</t>
         </is>
       </c>
     </row>
@@ -2396,37 +1946,37 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>92.6648217539276</t>
+          <t>83.11840290907979</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1026.6753225117825</t>
+          <t>1043.3060750211969</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>32.041774646729266</t>
+          <t>32.30024883837889</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>129.74379189809164</t>
+          <t>125.78794860839844</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -2436,12 +1986,12 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>37.756947600675296</t>
+          <t>59.87909693620168</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>6.14466822543539</t>
+          <t>7.738158497743612</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -2456,7 +2006,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>130.81428241729736</t>
+          <t>131.20871671040854</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -2466,12 +2016,12 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>95.60150961271432</t>
+          <t>121.15462484496862</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>9.777602447057987</t>
+          <t>11.007026158094138</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -2572,96 +2122,6 @@
       <c r="BD6" t="inlineStr">
         <is>
           <t>47.0</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>83.11840290907979</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>1043.3060750211969</t>
-        </is>
-      </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>32.30024883837889</t>
-        </is>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>125.78794860839844</t>
-        </is>
-      </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM6" t="inlineStr">
-        <is>
-          <t>59.87909693620168</t>
-        </is>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>7.738158497743612</t>
-        </is>
-      </c>
-      <c r="BO6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ6" t="inlineStr">
-        <is>
-          <t>131.20871671040854</t>
-        </is>
-      </c>
-      <c r="BR6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>121.15462484496862</t>
-        </is>
-      </c>
-      <c r="BT6" t="inlineStr">
-        <is>
-          <t>11.007026158094138</t>
-        </is>
-      </c>
-      <c r="BU6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV6" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -2768,37 +2228,37 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>81.55072262718491</t>
+          <t>73.0739063905634</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1178.9888536365947</t>
+          <t>1146.6291508048</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>34.33640711601309</t>
+          <t>33.861912982062904</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>136.15088099577977</t>
+          <t>118.53138742466788</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2808,27 +2268,27 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>121.2096962943096</t>
+          <t>166.72782659369886</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>11.009527523663747</t>
+          <t>12.912312983880884</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>140.27020214460484</t>
+          <t>142.346434142897</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2838,12 +2298,12 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>271.72839809533474</t>
+          <t>352.41039374967784</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>16.484186303707403</t>
+          <t>18.77259688348093</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -2853,7 +2313,7 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>157.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2944,96 +2404,6 @@
       <c r="BD7" t="inlineStr">
         <is>
           <t>36.0</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>73.0739063905634</t>
-        </is>
-      </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="BG7" t="inlineStr">
-        <is>
-          <t>1146.6291508048</t>
-        </is>
-      </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>33.861912982062904</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>52.0</t>
-        </is>
-      </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>85.0</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>118.53138742466788</t>
-        </is>
-      </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM7" t="inlineStr">
-        <is>
-          <t>166.72782659369886</t>
-        </is>
-      </c>
-      <c r="BN7" t="inlineStr">
-        <is>
-          <t>12.912312983880884</t>
-        </is>
-      </c>
-      <c r="BO7" t="inlineStr">
-        <is>
-          <t>106.0</t>
-        </is>
-      </c>
-      <c r="BP7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ7" t="inlineStr">
-        <is>
-          <t>142.346434142897</t>
-        </is>
-      </c>
-      <c r="BR7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS7" t="inlineStr">
-        <is>
-          <t>352.41039374967784</t>
-        </is>
-      </c>
-      <c r="BT7" t="inlineStr">
-        <is>
-          <t>18.77259688348093</t>
-        </is>
-      </c>
-      <c r="BU7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV7" t="inlineStr">
-        <is>
-          <t>162.0</t>
         </is>
       </c>
     </row>
@@ -3140,37 +2510,37 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>94.56727992305048</t>
+          <t>84.66241152422101</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1381.7252184627614</t>
+          <t>1322.7004172569498</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>37.171564649107275</t>
+          <t>36.3689485310883</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>105.0</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>140.0840128543994</t>
+          <t>114.01805670873715</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -3180,27 +2550,27 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>170.45488201343616</t>
+          <t>246.71676295832853</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>13.055837085895188</t>
+          <t>15.707220090083686</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>153.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>145.7069798808587</t>
+          <t>149.65355121516131</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -3210,12 +2580,12 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>378.6106286631521</t>
+          <t>523.2349146780023</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>19.457919433052243</t>
+          <t>22.87432872628183</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
@@ -3225,7 +2595,7 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>165.0</t>
+          <t>173.0</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -3316,96 +2686,6 @@
       <c r="BD8" t="inlineStr">
         <is>
           <t>53.0</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>84.66241152422101</t>
-        </is>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>82.0</t>
-        </is>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>1322.7004172569498</t>
-        </is>
-      </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>36.3689485310883</t>
-        </is>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>59.0</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>105.0</t>
-        </is>
-      </c>
-      <c r="BK8" t="inlineStr">
-        <is>
-          <t>114.01805670873715</t>
-        </is>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM8" t="inlineStr">
-        <is>
-          <t>246.71676295832853</t>
-        </is>
-      </c>
-      <c r="BN8" t="inlineStr">
-        <is>
-          <t>15.707220090083686</t>
-        </is>
-      </c>
-      <c r="BO8" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="BP8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ8" t="inlineStr">
-        <is>
-          <t>149.65355121516131</t>
-        </is>
-      </c>
-      <c r="BR8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS8" t="inlineStr">
-        <is>
-          <t>523.2349146780023</t>
-        </is>
-      </c>
-      <c r="BT8" t="inlineStr">
-        <is>
-          <t>22.87432872628183</t>
-        </is>
-      </c>
-      <c r="BU8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV8" t="inlineStr">
-        <is>
-          <t>173.0</t>
         </is>
       </c>
     </row>
@@ -3512,37 +2792,37 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>53.42855595060574</t>
+          <t>51.02854625651144</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1761.6922639437632</t>
+          <t>1614.3832480202086</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>41.97251796049128</t>
+          <t>40.179388348010086</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>129.48749446868896</t>
+          <t>126.7295789718628</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -3552,12 +2832,12 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>21.75364495751175</t>
+          <t>18.186956301871458</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>4.6640802906373455</t>
+          <t>4.2646167825340955</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -3572,7 +2852,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>129.7341168721517</t>
+          <t>130.33877595265707</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -3582,12 +2862,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>32.99670041891741</t>
+          <t>52.08011642569901</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>5.744275447688543</t>
+          <t>7.216655487530149</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -3688,96 +2968,6 @@
       <c r="BD9" t="inlineStr">
         <is>
           <t>29.0</t>
-        </is>
-      </c>
-      <c r="BE9" t="inlineStr">
-        <is>
-          <t>51.02854625651144</t>
-        </is>
-      </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>39.0</t>
-        </is>
-      </c>
-      <c r="BG9" t="inlineStr">
-        <is>
-          <t>1614.3832480202086</t>
-        </is>
-      </c>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>40.179388348010086</t>
-        </is>
-      </c>
-      <c r="BI9" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>51.0</t>
-        </is>
-      </c>
-      <c r="BK9" t="inlineStr">
-        <is>
-          <t>126.7295789718628</t>
-        </is>
-      </c>
-      <c r="BL9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM9" t="inlineStr">
-        <is>
-          <t>18.186956301871458</t>
-        </is>
-      </c>
-      <c r="BN9" t="inlineStr">
-        <is>
-          <t>4.2646167825340955</t>
-        </is>
-      </c>
-      <c r="BO9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ9" t="inlineStr">
-        <is>
-          <t>130.33877595265707</t>
-        </is>
-      </c>
-      <c r="BR9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>52.08011642569901</t>
-        </is>
-      </c>
-      <c r="BT9" t="inlineStr">
-        <is>
-          <t>7.216655487530149</t>
-        </is>
-      </c>
-      <c r="BU9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV9" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -3884,37 +3074,37 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>64.43306367720945</t>
+          <t>60.21131947057391</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1399.7006721370885</t>
+          <t>1283.7131543334533</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>37.41257371709528</t>
+          <t>35.828942969803805</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>134.67676872673235</t>
+          <t>121.94877619034786</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -3924,27 +3114,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>70.41734196805777</t>
+          <t>72.92286701188964</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>8.391504154086904</t>
+          <t>8.539488685623375</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>136.21238451992758</t>
+          <t>138.95176240652836</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -3954,12 +3144,12 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>126.56228431030478</t>
+          <t>177.50554804458534</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>11.24999041378724</t>
+          <t>13.32312080725028</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -3969,7 +3159,7 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>150.0</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -4060,96 +3250,6 @@
       <c r="BD10" t="inlineStr">
         <is>
           <t>43.0</t>
-        </is>
-      </c>
-      <c r="BE10" t="inlineStr">
-        <is>
-          <t>60.21131947057391</t>
-        </is>
-      </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>51.0</t>
-        </is>
-      </c>
-      <c r="BG10" t="inlineStr">
-        <is>
-          <t>1283.7131543334533</t>
-        </is>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>35.828942969803805</t>
-        </is>
-      </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="BK10" t="inlineStr">
-        <is>
-          <t>121.94877619034786</t>
-        </is>
-      </c>
-      <c r="BL10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM10" t="inlineStr">
-        <is>
-          <t>72.92286701188964</t>
-        </is>
-      </c>
-      <c r="BN10" t="inlineStr">
-        <is>
-          <t>8.539488685623375</t>
-        </is>
-      </c>
-      <c r="BO10" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="BP10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ10" t="inlineStr">
-        <is>
-          <t>138.95176240652836</t>
-        </is>
-      </c>
-      <c r="BR10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS10" t="inlineStr">
-        <is>
-          <t>177.50554804458534</t>
-        </is>
-      </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>13.32312080725028</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV10" t="inlineStr">
-        <is>
-          <t>150.0</t>
         </is>
       </c>
     </row>
@@ -4256,37 +3356,37 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>103.8756330852791</t>
+          <t>95.20793541473456</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1014.2521678852048</t>
+          <t>1003.1844224430578</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>31.8473259141989</t>
+          <t>31.673086721111627</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>130.24607880910239</t>
+          <t>124.99614810943604</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -4296,12 +3396,12 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>38.827196798995224</t>
+          <t>67.3523471599072</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>6.231147310006017</t>
+          <t>8.206847577474996</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -4316,7 +3416,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>131.79156907399496</t>
+          <t>132.40377457936606</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -4326,12 +3426,12 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>106.36326717377888</t>
+          <t>139.02318148975414</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>10.313256865499806</t>
+          <t>11.79080919571486</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -4432,96 +3532,6 @@
       <c r="BD11" t="inlineStr">
         <is>
           <t>77.0</t>
-        </is>
-      </c>
-      <c r="BE11" t="inlineStr">
-        <is>
-          <t>95.20793541473456</t>
-        </is>
-      </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="BG11" t="inlineStr">
-        <is>
-          <t>1003.1844224430578</t>
-        </is>
-      </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>31.673086721111627</t>
-        </is>
-      </c>
-      <c r="BI11" t="inlineStr">
-        <is>
-          <t>73.0</t>
-        </is>
-      </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="BK11" t="inlineStr">
-        <is>
-          <t>124.99614810943604</t>
-        </is>
-      </c>
-      <c r="BL11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM11" t="inlineStr">
-        <is>
-          <t>67.3523471599072</t>
-        </is>
-      </c>
-      <c r="BN11" t="inlineStr">
-        <is>
-          <t>8.206847577474996</t>
-        </is>
-      </c>
-      <c r="BO11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ11" t="inlineStr">
-        <is>
-          <t>132.40377457936606</t>
-        </is>
-      </c>
-      <c r="BR11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS11" t="inlineStr">
-        <is>
-          <t>139.02318148975414</t>
-        </is>
-      </c>
-      <c r="BT11" t="inlineStr">
-        <is>
-          <t>11.79080919571486</t>
-        </is>
-      </c>
-      <c r="BU11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV11" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -4628,37 +3638,37 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>126.94036785161664</t>
+          <t>115.62942086671279</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1066.6261674826876</t>
+          <t>1187.6987094283877</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>32.65924321662533</t>
+          <t>34.46300493904134</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>133.0</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>131.41583697001138</t>
+          <t>122.53393936157227</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -4668,12 +3678,12 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>70.63887707429164</t>
+          <t>176.3684388790134</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>8.404693752558249</t>
+          <t>13.280377964463716</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -4688,7 +3698,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>134.51693789164224</t>
+          <t>135.14838218688965</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -4698,12 +3708,12 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>247.56123209484724</t>
+          <t>288.65404944312394</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>15.73407868592398</t>
+          <t>16.9898219367692</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -4804,96 +3814,6 @@
       <c r="BD12" t="inlineStr">
         <is>
           <t>78.0</t>
-        </is>
-      </c>
-      <c r="BE12" t="inlineStr">
-        <is>
-          <t>115.62942086671279</t>
-        </is>
-      </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>111.0</t>
-        </is>
-      </c>
-      <c r="BG12" t="inlineStr">
-        <is>
-          <t>1187.6987094283877</t>
-        </is>
-      </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>34.46300493904134</t>
-        </is>
-      </c>
-      <c r="BI12" t="inlineStr">
-        <is>
-          <t>92.0</t>
-        </is>
-      </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
-      <c r="BK12" t="inlineStr">
-        <is>
-          <t>122.53393936157227</t>
-        </is>
-      </c>
-      <c r="BL12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM12" t="inlineStr">
-        <is>
-          <t>176.3684388790134</t>
-        </is>
-      </c>
-      <c r="BN12" t="inlineStr">
-        <is>
-          <t>13.280377964463716</t>
-        </is>
-      </c>
-      <c r="BO12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ12" t="inlineStr">
-        <is>
-          <t>135.14838218688965</t>
-        </is>
-      </c>
-      <c r="BR12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS12" t="inlineStr">
-        <is>
-          <t>288.65404944312394</t>
-        </is>
-      </c>
-      <c r="BT12" t="inlineStr">
-        <is>
-          <t>16.9898219367692</t>
-        </is>
-      </c>
-      <c r="BU12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV12" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -5000,22 +3920,22 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>57.1519835043178</t>
+          <t>54.23931422607637</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1645.7803226363696</t>
+          <t>1476.8961987013056</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>40.56821813484503</t>
+          <t>38.43040721487746</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -5025,12 +3945,12 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>129.19315020243326</t>
+          <t>127.00471528371175</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -5040,12 +3960,12 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>18.147242330964886</t>
+          <t>15.659227707607355</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>4.259958019859455</t>
+          <t>3.957174207386801</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -5060,7 +3980,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>129.3411553700765</t>
+          <t>129.88727283477783</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -5070,12 +3990,12 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>27.419755998493883</t>
+          <t>43.958325364642484</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>5.2363876860383325</t>
+          <t>6.630107492691388</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -5176,96 +4096,6 @@
       <c r="BD13" t="inlineStr">
         <is>
           <t>42.0</t>
-        </is>
-      </c>
-      <c r="BE13" t="inlineStr">
-        <is>
-          <t>54.23931422607637</t>
-        </is>
-      </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="BG13" t="inlineStr">
-        <is>
-          <t>1476.8961987013056</t>
-        </is>
-      </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>38.43040721487746</t>
-        </is>
-      </c>
-      <c r="BI13" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="BJ13" t="inlineStr">
-        <is>
-          <t>59.0</t>
-        </is>
-      </c>
-      <c r="BK13" t="inlineStr">
-        <is>
-          <t>127.00471528371175</t>
-        </is>
-      </c>
-      <c r="BL13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM13" t="inlineStr">
-        <is>
-          <t>15.659227707607355</t>
-        </is>
-      </c>
-      <c r="BN13" t="inlineStr">
-        <is>
-          <t>3.957174207386801</t>
-        </is>
-      </c>
-      <c r="BO13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ13" t="inlineStr">
-        <is>
-          <t>129.88727283477783</t>
-        </is>
-      </c>
-      <c r="BR13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS13" t="inlineStr">
-        <is>
-          <t>43.958325364642484</t>
-        </is>
-      </c>
-      <c r="BT13" t="inlineStr">
-        <is>
-          <t>6.630107492691388</t>
-        </is>
-      </c>
-      <c r="BU13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV13" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -5372,37 +4202,37 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>157.43568741483946</t>
+          <t>148.09595653867913</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>159.0</t>
+          <t>150.0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1042.0161378799744</t>
+          <t>1211.7811812801233</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>32.28027474914014</t>
+          <t>34.81064752744659</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>137.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>181.0</t>
+          <t>174.0</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>134.09087956788056</t>
+          <t>116.97309209403466</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -5412,27 +4242,27 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>84.54625758271351</t>
+          <t>258.0455616084456</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>9.194903891978072</t>
+          <t>16.063796612521138</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>140.7852890699571</t>
+          <t>142.360382150104</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -5442,12 +4272,12 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>348.58217045428074</t>
+          <t>411.3512929644501</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>18.67035539175087</t>
+          <t>20.281797084194736</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
@@ -5457,7 +4287,7 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>156.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -5548,96 +4378,6 @@
       <c r="BD14" t="inlineStr">
         <is>
           <t>142.0</t>
-        </is>
-      </c>
-      <c r="BE14" t="inlineStr">
-        <is>
-          <t>148.09595653867913</t>
-        </is>
-      </c>
-      <c r="BF14" t="inlineStr">
-        <is>
-          <t>150.0</t>
-        </is>
-      </c>
-      <c r="BG14" t="inlineStr">
-        <is>
-          <t>1211.7811812801233</t>
-        </is>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>34.81064752744659</t>
-        </is>
-      </c>
-      <c r="BI14" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>174.0</t>
-        </is>
-      </c>
-      <c r="BK14" t="inlineStr">
-        <is>
-          <t>116.97309209403466</t>
-        </is>
-      </c>
-      <c r="BL14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM14" t="inlineStr">
-        <is>
-          <t>258.0455616084456</t>
-        </is>
-      </c>
-      <c r="BN14" t="inlineStr">
-        <is>
-          <t>16.063796612521138</t>
-        </is>
-      </c>
-      <c r="BO14" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="BP14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ14" t="inlineStr">
-        <is>
-          <t>142.360382150104</t>
-        </is>
-      </c>
-      <c r="BR14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS14" t="inlineStr">
-        <is>
-          <t>411.3512929644501</t>
-        </is>
-      </c>
-      <c r="BT14" t="inlineStr">
-        <is>
-          <t>20.281797084194736</t>
-        </is>
-      </c>
-      <c r="BU14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV14" t="inlineStr">
-        <is>
-          <t>162.0</t>
         </is>
       </c>
     </row>
@@ -5744,37 +4484,37 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>146.5194111734651</t>
+          <t>136.58701673985618</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1069.2095684039564</t>
+          <t>1197.6204209794262</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>32.698770135953986</t>
+          <t>34.6066528427617</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>124.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>169.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>134.89075091789246</t>
+          <t>115.51069432426743</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -5784,27 +4524,27 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>92.78373358873802</t>
+          <t>280.99281493616894</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>9.632431343577696</t>
+          <t>16.762840300383733</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>142.66723182339047</t>
+          <t>143.97889665816982</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -5814,12 +4554,12 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>385.2147301333208</t>
+          <t>434.8087008335709</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>19.626887938063966</t>
+          <t>20.852067063808587</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
@@ -5829,7 +4569,7 @@
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>166.0</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
@@ -5920,96 +4660,6 @@
       <c r="BD15" t="inlineStr">
         <is>
           <t>115.0</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>136.58701673985618</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="BG15" t="inlineStr">
-        <is>
-          <t>1197.6204209794262</t>
-        </is>
-      </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>34.6066528427617</t>
-        </is>
-      </c>
-      <c r="BI15" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>160.0</t>
-        </is>
-      </c>
-      <c r="BK15" t="inlineStr">
-        <is>
-          <t>115.51069432426743</t>
-        </is>
-      </c>
-      <c r="BL15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM15" t="inlineStr">
-        <is>
-          <t>280.99281493616894</t>
-        </is>
-      </c>
-      <c r="BN15" t="inlineStr">
-        <is>
-          <t>16.762840300383733</t>
-        </is>
-      </c>
-      <c r="BO15" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="BP15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ15" t="inlineStr">
-        <is>
-          <t>143.97889665816982</t>
-        </is>
-      </c>
-      <c r="BR15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS15" t="inlineStr">
-        <is>
-          <t>434.8087008335709</t>
-        </is>
-      </c>
-      <c r="BT15" t="inlineStr">
-        <is>
-          <t>20.852067063808587</t>
-        </is>
-      </c>
-      <c r="BU15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV15" t="inlineStr">
-        <is>
-          <t>166.0</t>
         </is>
       </c>
     </row>
@@ -6116,37 +4766,37 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>91.0741296171073</t>
+          <t>81.60848817211372</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>1368.773495523122</t>
+          <t>1363.5947424088763</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>36.996939002073155</t>
+          <t>36.92688373541527</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>133.17143535614014</t>
+          <t>122.15286000569661</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -6156,12 +4806,12 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>105.75466721796057</t>
+          <t>138.04449982614548</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>10.283708826000499</t>
+          <t>11.74923401018745</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -6176,7 +4826,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>135.52214431762695</t>
+          <t>137.12794335683188</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -6186,12 +4836,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>222.44480432727627</t>
+          <t>316.21351718821836</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>14.914583612266092</t>
+          <t>17.782393460617676</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -6292,96 +4942,6 @@
       <c r="BD16" t="inlineStr">
         <is>
           <t>40.0</t>
-        </is>
-      </c>
-      <c r="BE16" t="inlineStr">
-        <is>
-          <t>81.60848817211372</t>
-        </is>
-      </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>71.0</t>
-        </is>
-      </c>
-      <c r="BG16" t="inlineStr">
-        <is>
-          <t>1363.5947424088763</t>
-        </is>
-      </c>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>36.92688373541527</t>
-        </is>
-      </c>
-      <c r="BI16" t="inlineStr">
-        <is>
-          <t>59.0</t>
-        </is>
-      </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="BK16" t="inlineStr">
-        <is>
-          <t>122.15286000569661</t>
-        </is>
-      </c>
-      <c r="BL16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM16" t="inlineStr">
-        <is>
-          <t>138.04449982614548</t>
-        </is>
-      </c>
-      <c r="BN16" t="inlineStr">
-        <is>
-          <t>11.74923401018745</t>
-        </is>
-      </c>
-      <c r="BO16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ16" t="inlineStr">
-        <is>
-          <t>137.12794335683188</t>
-        </is>
-      </c>
-      <c r="BR16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS16" t="inlineStr">
-        <is>
-          <t>316.21351718821836</t>
-        </is>
-      </c>
-      <c r="BT16" t="inlineStr">
-        <is>
-          <t>17.782393460617676</t>
-        </is>
-      </c>
-      <c r="BU16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV16" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -6488,37 +5048,37 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>151.8340512177931</t>
+          <t>142.08771634427129</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>154.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1033.2116653246533</t>
+          <t>1195.751370765808</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>32.14361002321695</t>
+          <t>34.5796380947778</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>133.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>174.0</t>
+          <t>166.0</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>135.71241817164474</t>
+          <t>114.27997312150931</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -6528,27 +5088,27 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>99.41033248536155</t>
+          <t>292.07453838746045</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>9.970473032176635</t>
+          <t>17.0901883660614</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>143.97671131539832</t>
+          <t>145.8338931588577</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -6558,12 +5118,12 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>395.783393877133</t>
+          <t>457.846700082011</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>19.894305564083734</t>
+          <t>21.397352641904348</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
@@ -6573,7 +5133,7 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>163.0</t>
+          <t>167.0</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
@@ -6664,96 +5224,6 @@
       <c r="BD17" t="inlineStr">
         <is>
           <t>128.0</t>
-        </is>
-      </c>
-      <c r="BE17" t="inlineStr">
-        <is>
-          <t>142.08771634427129</t>
-        </is>
-      </c>
-      <c r="BF17" t="inlineStr">
-        <is>
-          <t>145.0</t>
-        </is>
-      </c>
-      <c r="BG17" t="inlineStr">
-        <is>
-          <t>1195.751370765808</t>
-        </is>
-      </c>
-      <c r="BH17" t="inlineStr">
-        <is>
-          <t>34.5796380947778</t>
-        </is>
-      </c>
-      <c r="BI17" t="inlineStr">
-        <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>166.0</t>
-        </is>
-      </c>
-      <c r="BK17" t="inlineStr">
-        <is>
-          <t>114.27997312150931</t>
-        </is>
-      </c>
-      <c r="BL17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM17" t="inlineStr">
-        <is>
-          <t>292.07453838746045</t>
-        </is>
-      </c>
-      <c r="BN17" t="inlineStr">
-        <is>
-          <t>17.0901883660614</t>
-        </is>
-      </c>
-      <c r="BO17" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="BP17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ17" t="inlineStr">
-        <is>
-          <t>145.8338931588577</t>
-        </is>
-      </c>
-      <c r="BR17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS17" t="inlineStr">
-        <is>
-          <t>457.846700082011</t>
-        </is>
-      </c>
-      <c r="BT17" t="inlineStr">
-        <is>
-          <t>21.397352641904348</t>
-        </is>
-      </c>
-      <c r="BU17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV17" t="inlineStr">
-        <is>
-          <t>167.0</t>
         </is>
       </c>
     </row>
@@ -6860,37 +5330,37 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>103.1203730911228</t>
+          <t>93.64590091439909</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1022.179890677536</t>
+          <t>1023.5659059536118</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>31.971548143271637</t>
+          <t>31.993216561540226</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>134.75188163668332</t>
+          <t>118.30025081448704</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -6900,27 +5370,27 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>96.57294512695837</t>
+          <t>182.5719701244901</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>9.82715346002892</t>
+          <t>13.51191955735713</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>140.16593464038482</t>
+          <t>141.3945496691889</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -6930,12 +5400,12 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>283.1648578316902</t>
+          <t>337.6246138997089</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>16.82750301832361</t>
+          <t>18.37456431863648</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -6945,7 +5415,7 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>159.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
@@ -7036,96 +5506,6 @@
       <c r="BD18" t="inlineStr">
         <is>
           <t>72.0</t>
-        </is>
-      </c>
-      <c r="BE18" t="inlineStr">
-        <is>
-          <t>93.64590091439909</t>
-        </is>
-      </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="BG18" t="inlineStr">
-        <is>
-          <t>1023.5659059536118</t>
-        </is>
-      </c>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>31.993216561540226</t>
-        </is>
-      </c>
-      <c r="BI18" t="inlineStr">
-        <is>
-          <t>71.0</t>
-        </is>
-      </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="BK18" t="inlineStr">
-        <is>
-          <t>118.30025081448704</t>
-        </is>
-      </c>
-      <c r="BL18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM18" t="inlineStr">
-        <is>
-          <t>182.5719701244901</t>
-        </is>
-      </c>
-      <c r="BN18" t="inlineStr">
-        <is>
-          <t>13.51191955735713</t>
-        </is>
-      </c>
-      <c r="BO18" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="BP18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ18" t="inlineStr">
-        <is>
-          <t>141.3945496691889</t>
-        </is>
-      </c>
-      <c r="BR18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS18" t="inlineStr">
-        <is>
-          <t>337.6246138997089</t>
-        </is>
-      </c>
-      <c r="BT18" t="inlineStr">
-        <is>
-          <t>18.37456431863648</t>
-        </is>
-      </c>
-      <c r="BU18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV18" t="inlineStr">
-        <is>
-          <t>162.0</t>
         </is>
       </c>
     </row>
@@ -7232,37 +5612,37 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>148.33047395782296</t>
+          <t>138.56845289693936</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>980.2922628833892</t>
+          <t>1135.2278740203935</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>31.309619334693117</t>
+          <t>33.69314283382293</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>168.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>130.37766043345133</t>
+          <t>124.13392957051595</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -7272,12 +5652,12 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>45.65614699835226</t>
+          <t>117.93857913601072</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>6.756933253951253</t>
+          <t>10.859952998793812</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -7292,7 +5672,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>132.52860355377197</t>
+          <t>133.27090771993002</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -7302,12 +5682,12 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>161.59859602636752</t>
+          <t>206.6474876083563</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>12.712143644026664</t>
+          <t>14.375238697439299</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -7408,96 +5788,6 @@
       <c r="BD19" t="inlineStr">
         <is>
           <t>122.0</t>
-        </is>
-      </c>
-      <c r="BE19" t="inlineStr">
-        <is>
-          <t>138.56845289693936</t>
-        </is>
-      </c>
-      <c r="BF19" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="BG19" t="inlineStr">
-        <is>
-          <t>1135.2278740203935</t>
-        </is>
-      </c>
-      <c r="BH19" t="inlineStr">
-        <is>
-          <t>33.69314283382293</t>
-        </is>
-      </c>
-      <c r="BI19" t="inlineStr">
-        <is>
-          <t>118.0</t>
-        </is>
-      </c>
-      <c r="BJ19" t="inlineStr">
-        <is>
-          <t>160.0</t>
-        </is>
-      </c>
-      <c r="BK19" t="inlineStr">
-        <is>
-          <t>124.13392957051595</t>
-        </is>
-      </c>
-      <c r="BL19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM19" t="inlineStr">
-        <is>
-          <t>117.93857913601072</t>
-        </is>
-      </c>
-      <c r="BN19" t="inlineStr">
-        <is>
-          <t>10.859952998793812</t>
-        </is>
-      </c>
-      <c r="BO19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ19" t="inlineStr">
-        <is>
-          <t>133.27090771993002</t>
-        </is>
-      </c>
-      <c r="BR19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS19" t="inlineStr">
-        <is>
-          <t>206.6474876083563</t>
-        </is>
-      </c>
-      <c r="BT19" t="inlineStr">
-        <is>
-          <t>14.375238697439299</t>
-        </is>
-      </c>
-      <c r="BU19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV19" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -7604,37 +5894,37 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>172.41573384759585</t>
+          <t>164.49033064351048</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>165.0</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>537.279159751297</t>
+          <t>636.2851579068138</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>23.179282986134343</t>
+          <t>25.224693415516743</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>156.0</t>
+          <t>148.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>188.0</t>
+          <t>182.0</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>133.23396666705128</t>
+          <t>117.47119134427894</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -7644,27 +5934,27 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>51.384840023533805</t>
+          <t>196.7827020386028</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>7.1683219810171614</t>
+          <t>14.027925792454235</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>105.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>140.01355557222138</t>
+          <t>141.67230676927693</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -7674,12 +5964,12 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>258.41793332137706</t>
+          <t>308.1596903313408</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>16.075382835919555</t>
+          <t>17.554477785777074</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
@@ -7689,7 +5979,7 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>154.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
@@ -7780,96 +6070,6 @@
       <c r="BD20" t="inlineStr">
         <is>
           <t>157.0</t>
-        </is>
-      </c>
-      <c r="BE20" t="inlineStr">
-        <is>
-          <t>164.49033064351048</t>
-        </is>
-      </c>
-      <c r="BF20" t="inlineStr">
-        <is>
-          <t>165.0</t>
-        </is>
-      </c>
-      <c r="BG20" t="inlineStr">
-        <is>
-          <t>636.2851579068138</t>
-        </is>
-      </c>
-      <c r="BH20" t="inlineStr">
-        <is>
-          <t>25.224693415516743</t>
-        </is>
-      </c>
-      <c r="BI20" t="inlineStr">
-        <is>
-          <t>148.0</t>
-        </is>
-      </c>
-      <c r="BJ20" t="inlineStr">
-        <is>
-          <t>182.0</t>
-        </is>
-      </c>
-      <c r="BK20" t="inlineStr">
-        <is>
-          <t>117.47119134427894</t>
-        </is>
-      </c>
-      <c r="BL20" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM20" t="inlineStr">
-        <is>
-          <t>196.7827020386028</t>
-        </is>
-      </c>
-      <c r="BN20" t="inlineStr">
-        <is>
-          <t>14.027925792454235</t>
-        </is>
-      </c>
-      <c r="BO20" t="inlineStr">
-        <is>
-          <t>105.0</t>
-        </is>
-      </c>
-      <c r="BP20" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ20" t="inlineStr">
-        <is>
-          <t>141.67230676927693</t>
-        </is>
-      </c>
-      <c r="BR20" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS20" t="inlineStr">
-        <is>
-          <t>308.1596903313408</t>
-        </is>
-      </c>
-      <c r="BT20" t="inlineStr">
-        <is>
-          <t>17.554477785777074</t>
-        </is>
-      </c>
-      <c r="BU20" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV20" t="inlineStr">
-        <is>
-          <t>160.0</t>
         </is>
       </c>
     </row>
@@ -7976,37 +6176,37 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>147.40072768948775</t>
+          <t>138.21280796297967</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>137.0</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>873.0257199576353</t>
+          <t>1004.1598356420867</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>29.54700864652182</t>
+          <t>31.688481119203026</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>161.0</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>133.1990236200581</t>
+          <t>119.37601743084501</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -8016,27 +6216,27 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>72.35441132406002</t>
+          <t>190.40712548056015</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>8.506139625238939</t>
+          <t>13.798808842815388</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>138.1431085006947</t>
+          <t>139.78941897183276</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -8046,12 +6246,12 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>264.53015908801297</t>
+          <t>329.8148055611053</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>16.26438314502007</t>
+          <t>18.160804100069612</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -8061,7 +6261,7 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>157.0</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
@@ -8152,96 +6352,6 @@
       <c r="BD21" t="inlineStr">
         <is>
           <t>126.0</t>
-        </is>
-      </c>
-      <c r="BE21" t="inlineStr">
-        <is>
-          <t>138.21280796297967</t>
-        </is>
-      </c>
-      <c r="BF21" t="inlineStr">
-        <is>
-          <t>137.0</t>
-        </is>
-      </c>
-      <c r="BG21" t="inlineStr">
-        <is>
-          <t>1004.1598356420867</t>
-        </is>
-      </c>
-      <c r="BH21" t="inlineStr">
-        <is>
-          <t>31.688481119203026</t>
-        </is>
-      </c>
-      <c r="BI21" t="inlineStr">
-        <is>
-          <t>119.0</t>
-        </is>
-      </c>
-      <c r="BJ21" t="inlineStr">
-        <is>
-          <t>153.0</t>
-        </is>
-      </c>
-      <c r="BK21" t="inlineStr">
-        <is>
-          <t>119.37601743084501</t>
-        </is>
-      </c>
-      <c r="BL21" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM21" t="inlineStr">
-        <is>
-          <t>190.40712548056015</t>
-        </is>
-      </c>
-      <c r="BN21" t="inlineStr">
-        <is>
-          <t>13.798808842815388</t>
-        </is>
-      </c>
-      <c r="BO21" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="BP21" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ21" t="inlineStr">
-        <is>
-          <t>139.78941897183276</t>
-        </is>
-      </c>
-      <c r="BR21" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS21" t="inlineStr">
-        <is>
-          <t>329.8148055611053</t>
-        </is>
-      </c>
-      <c r="BT21" t="inlineStr">
-        <is>
-          <t>18.160804100069612</t>
-        </is>
-      </c>
-      <c r="BU21" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV21" t="inlineStr">
-        <is>
-          <t>157.0</t>
         </is>
       </c>
     </row>
@@ -8348,37 +6458,37 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>71.62863984343805</t>
+          <t>63.21710892787601</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>1241.5737768440424</t>
+          <t>1186.0667285160825</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>35.235972767103256</t>
+          <t>34.439319512964865</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>134.20473384857178</t>
+          <t>121.83839543660481</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -8388,27 +6498,27 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>123.37291998111898</t>
+          <t>130.1741873606792</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>11.107336313496543</t>
+          <t>11.409390315029073</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>136.1006736755371</t>
+          <t>138.16466744740805</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -8418,12 +6528,12 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>218.59601321295</t>
+          <t>326.8593086963999</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>14.784992837771346</t>
+          <t>18.079250778071525</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
@@ -8433,7 +6543,7 @@
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
@@ -8524,96 +6634,6 @@
       <c r="BD22" t="inlineStr">
         <is>
           <t>15.0</t>
-        </is>
-      </c>
-      <c r="BE22" t="inlineStr">
-        <is>
-          <t>63.21710892787601</t>
-        </is>
-      </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="BG22" t="inlineStr">
-        <is>
-          <t>1186.0667285160825</t>
-        </is>
-      </c>
-      <c r="BH22" t="inlineStr">
-        <is>
-          <t>34.439319512964865</t>
-        </is>
-      </c>
-      <c r="BI22" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="BJ22" t="inlineStr">
-        <is>
-          <t>68.0</t>
-        </is>
-      </c>
-      <c r="BK22" t="inlineStr">
-        <is>
-          <t>121.83839543660481</t>
-        </is>
-      </c>
-      <c r="BL22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM22" t="inlineStr">
-        <is>
-          <t>130.1741873606792</t>
-        </is>
-      </c>
-      <c r="BN22" t="inlineStr">
-        <is>
-          <t>11.409390315029073</t>
-        </is>
-      </c>
-      <c r="BO22" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="BP22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ22" t="inlineStr">
-        <is>
-          <t>138.16466744740805</t>
-        </is>
-      </c>
-      <c r="BR22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS22" t="inlineStr">
-        <is>
-          <t>326.8593086963999</t>
-        </is>
-      </c>
-      <c r="BT22" t="inlineStr">
-        <is>
-          <t>18.079250778071525</t>
-        </is>
-      </c>
-      <c r="BU22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV22" t="inlineStr">
-        <is>
-          <t>146.0</t>
         </is>
       </c>
     </row>
